--- a/Memcache Variables.xlsx
+++ b/Memcache Variables.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="83">
   <si>
     <t>Variable Name</t>
   </si>
@@ -22,6 +22,18 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Expected Length</t>
+  </si>
+  <si>
+    <t>Required Byte</t>
+  </si>
+  <si>
+    <t>IsSHA256Hash</t>
+  </si>
+  <si>
+    <t>Hash Required Byte</t>
+  </si>
+  <si>
     <t>PortID</t>
   </si>
   <si>
@@ -31,6 +43,9 @@
     <t xml:space="preserve"> เก็บข้อมูล Port ID</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>CustID</t>
   </si>
   <si>
@@ -47,6 +62,9 @@
   </si>
   <si>
     <t>เก็บชื่อผู้ใช้</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t>Password</t>
@@ -248,19 +266,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
+    <font>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +296,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC9DAF8"/>
         <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -294,11 +331,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -308,10 +348,38 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,6 +600,10 @@
     <col customWidth="1" min="1" max="1" width="40.43"/>
     <col customWidth="1" min="2" max="2" width="23.86"/>
     <col customWidth="1" min="3" max="3" width="81.43"/>
+    <col customWidth="1" min="4" max="4" width="20.86"/>
+    <col customWidth="1" min="5" max="5" width="21.29"/>
+    <col customWidth="1" min="6" max="6" width="19.57"/>
+    <col customWidth="1" min="7" max="7" width="21.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -544,412 +616,942 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E2" s="6">
+        <f t="shared" ref="E2:E38" si="1">D2*8</f>
+        <v>80</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6">
+        <f t="shared" ref="G2:G38" si="2">IF(F2 = "Y", 64, E2)</f>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10">
+        <v>20.0</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="2"/>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
+      <c r="A6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="10">
+        <v>16.0</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="2"/>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="10">
+        <v>50.0</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="14">
+        <v>400.0</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" si="1"/>
+        <v>3200</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="17">
+        <f t="shared" si="2"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>47</v>
+      <c r="F23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>49</v>
+      <c r="A24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>51</v>
+      <c r="A25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>53</v>
+      <c r="A26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>55</v>
+      <c r="A27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>57</v>
+      <c r="A28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>59</v>
+      <c r="A29" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>61</v>
+      <c r="A30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>63</v>
+      <c r="A31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" si="2"/>
+        <v>160</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>65</v>
+      <c r="A32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>67</v>
+      <c r="A33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>67</v>
+      <c r="A34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>70</v>
+      <c r="A35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E35" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>72</v>
+      <c r="A36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>74</v>
+      <c r="A37" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E37" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>76</v>
+      <c r="A38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
